--- a/src/template/napoleon/napoleon.xlsx
+++ b/src/template/napoleon/napoleon.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stas\Documents\GitHub\photogen\src\template\napoleon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\photogen\src\template\napoleon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7CCB7-EA44-4782-83A0-7809A3CA08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7D10E-9225-4F12-8C00-C6738F34E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Главное фото" sheetId="1" r:id="rId1"/>
     <sheet name="Доп. фото" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
   <si>
     <t>№</t>
   </si>
@@ -41,6 +50,366 @@
   </si>
   <si>
     <t>Покрас</t>
+  </si>
+  <si>
+    <t>некрашеный</t>
+  </si>
+  <si>
+    <t>Вид</t>
+  </si>
+  <si>
+    <t>солдатик</t>
+  </si>
+  <si>
+    <t>диорама</t>
+  </si>
+  <si>
+    <t>Сделана из металла,&lt;br&gt;высокое качество отливки</t>
+  </si>
+  <si>
+    <t>Реалистичная внешность,&lt;br&gt;историческая достоверность</t>
+  </si>
+  <si>
+    <t>Можно раскрасить самому</t>
+  </si>
+  <si>
+    <t>Сделан из металла,&lt;br&gt;высокое качество отливки</t>
+  </si>
+  <si>
+    <t>1-1.png</t>
+  </si>
+  <si>
+    <t>2-1.png</t>
+  </si>
+  <si>
+    <t>3-1.png</t>
+  </si>
+  <si>
+    <t>4-1.png</t>
+  </si>
+  <si>
+    <t>5-1.png</t>
+  </si>
+  <si>
+    <t>6-1.png</t>
+  </si>
+  <si>
+    <t>7-1.png</t>
+  </si>
+  <si>
+    <t>8-1.png</t>
+  </si>
+  <si>
+    <t>9-1.png</t>
+  </si>
+  <si>
+    <t>10-1.png</t>
+  </si>
+  <si>
+    <t>11-1.png</t>
+  </si>
+  <si>
+    <t>12-1.png</t>
+  </si>
+  <si>
+    <t>13-1.png</t>
+  </si>
+  <si>
+    <t>14-1.png</t>
+  </si>
+  <si>
+    <t>15-1.png</t>
+  </si>
+  <si>
+    <t>16-1.png</t>
+  </si>
+  <si>
+    <t>17-1.png</t>
+  </si>
+  <si>
+    <t>18-1.png</t>
+  </si>
+  <si>
+    <t>19-1.png</t>
+  </si>
+  <si>
+    <t>20-1.png</t>
+  </si>
+  <si>
+    <t>21-1.png</t>
+  </si>
+  <si>
+    <t>22-1.png</t>
+  </si>
+  <si>
+    <t>23-1.png</t>
+  </si>
+  <si>
+    <t>24-1.png</t>
+  </si>
+  <si>
+    <t>25-1.png</t>
+  </si>
+  <si>
+    <t>1-2.png</t>
+  </si>
+  <si>
+    <t>1-3.png</t>
+  </si>
+  <si>
+    <t>1-4.png</t>
+  </si>
+  <si>
+    <t>2-2.png</t>
+  </si>
+  <si>
+    <t>2-3.png</t>
+  </si>
+  <si>
+    <t>2-4.png</t>
+  </si>
+  <si>
+    <t>3-2.png</t>
+  </si>
+  <si>
+    <t>3-3.png</t>
+  </si>
+  <si>
+    <t>3-4.png</t>
+  </si>
+  <si>
+    <t>4-2.png</t>
+  </si>
+  <si>
+    <t>4-3.png</t>
+  </si>
+  <si>
+    <t>4-4.png</t>
+  </si>
+  <si>
+    <t>5-2.png</t>
+  </si>
+  <si>
+    <t>5-3.png</t>
+  </si>
+  <si>
+    <t>5-4.png</t>
+  </si>
+  <si>
+    <t>6-2.png</t>
+  </si>
+  <si>
+    <t>6-3.png</t>
+  </si>
+  <si>
+    <t>6-4.png</t>
+  </si>
+  <si>
+    <t>7-2.png</t>
+  </si>
+  <si>
+    <t>7-3.png</t>
+  </si>
+  <si>
+    <t>7-4.png</t>
+  </si>
+  <si>
+    <t>8-2.png</t>
+  </si>
+  <si>
+    <t>8-3.png</t>
+  </si>
+  <si>
+    <t>8-4.png</t>
+  </si>
+  <si>
+    <t>9-2.png</t>
+  </si>
+  <si>
+    <t>9-3.png</t>
+  </si>
+  <si>
+    <t>9-4.png</t>
+  </si>
+  <si>
+    <t>10-2.png</t>
+  </si>
+  <si>
+    <t>10-3.png</t>
+  </si>
+  <si>
+    <t>10-4.png</t>
+  </si>
+  <si>
+    <t>11-2.png</t>
+  </si>
+  <si>
+    <t>11-3.png</t>
+  </si>
+  <si>
+    <t>11-4.png</t>
+  </si>
+  <si>
+    <t>12-2.png</t>
+  </si>
+  <si>
+    <t>12-3.png</t>
+  </si>
+  <si>
+    <t>12-4.png</t>
+  </si>
+  <si>
+    <t>13-2.png</t>
+  </si>
+  <si>
+    <t>13-3.png</t>
+  </si>
+  <si>
+    <t>13-4.png</t>
+  </si>
+  <si>
+    <t>14-2.png</t>
+  </si>
+  <si>
+    <t>14-3.png</t>
+  </si>
+  <si>
+    <t>14-4.png</t>
+  </si>
+  <si>
+    <t>15-2.png</t>
+  </si>
+  <si>
+    <t>15-3.png</t>
+  </si>
+  <si>
+    <t>15-4.png</t>
+  </si>
+  <si>
+    <t>16-2.png</t>
+  </si>
+  <si>
+    <t>16-3.png</t>
+  </si>
+  <si>
+    <t>16-4.png</t>
+  </si>
+  <si>
+    <t>17-2.png</t>
+  </si>
+  <si>
+    <t>17-3.png</t>
+  </si>
+  <si>
+    <t>17-4.png</t>
+  </si>
+  <si>
+    <t>18-2.png</t>
+  </si>
+  <si>
+    <t>18-3.png</t>
+  </si>
+  <si>
+    <t>18-4.png</t>
+  </si>
+  <si>
+    <t>19-2.png</t>
+  </si>
+  <si>
+    <t>19-3.png</t>
+  </si>
+  <si>
+    <t>19-4.png</t>
+  </si>
+  <si>
+    <t>20-2.png</t>
+  </si>
+  <si>
+    <t>20-3.png</t>
+  </si>
+  <si>
+    <t>20-4.png</t>
+  </si>
+  <si>
+    <t>21-2.png</t>
+  </si>
+  <si>
+    <t>21-3.png</t>
+  </si>
+  <si>
+    <t>21-4.png</t>
+  </si>
+  <si>
+    <t>22-2.png</t>
+  </si>
+  <si>
+    <t>22-3.png</t>
+  </si>
+  <si>
+    <t>22-4.png</t>
+  </si>
+  <si>
+    <t>23-2.png</t>
+  </si>
+  <si>
+    <t>23-3.png</t>
+  </si>
+  <si>
+    <t>23-4.png</t>
+  </si>
+  <si>
+    <t>24-2.png</t>
+  </si>
+  <si>
+    <t>24-3.png</t>
+  </si>
+  <si>
+    <t>24-4.png</t>
+  </si>
+  <si>
+    <t>25-2.png</t>
+  </si>
+  <si>
+    <t>25-3.png</t>
+  </si>
+  <si>
+    <t>25-4.png</t>
+  </si>
+  <si>
+    <t>Наполеон</t>
+  </si>
+  <si>
+    <t>Наполеон в Египте</t>
+  </si>
+  <si>
+    <t>Наполеон у орудия</t>
+  </si>
+  <si>
+    <t>Наполеон на коне</t>
+  </si>
+  <si>
+    <t>Наполеон. Бородино</t>
+  </si>
+  <si>
+    <t>Наполеон. Ватерлоо</t>
+  </si>
+  <si>
+    <t>Наполеон на троне</t>
+  </si>
+  <si>
+    <t>Наполеон в Тюильри</t>
+  </si>
+  <si>
+    <t>Наполеон, коронация</t>
+  </si>
+  <si>
+    <t>Наполеон с глобусом</t>
+  </si>
+  <si>
+    <t>Наполеон на верблюде</t>
+  </si>
+  <si>
+    <t>Отступающий Наполеон</t>
   </si>
 </sst>
 </file>
@@ -383,41 +752,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{553499B1-CE01-4A13-83C3-9DADE2189535}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{553499B1-CE01-4A13-83C3-9DADE2189535}">
       <formula1>"некрашеный,сувенирный,полуколлекционный,коллекционный"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{9C16C832-63BB-4AD5-A0A2-3FD220414331}">
+      <formula1>"набор,солдатик,диорама"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -427,28 +1228,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF80034-45F2-4524-B2CC-D5E17AA6E2D8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,6 +1257,831 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
